--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -90,7 +90,7 @@
 点击左边就可以强化技能啦！</t>
   </si>
   <si>
-    <t>现在是时候送配料们上天国啦！
+    <t>是时候送配料们上天国啦！
 点击蓝色按钮我会用力吸气吸收他们！</t>
   </si>
   <si>
@@ -1105,8 +1105,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
   <si>
     <t>//Remark</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>strContent</t>
+  </si>
+  <si>
+    <t>picUrl</t>
   </si>
   <si>
     <t>int</t>
@@ -60,13 +63,22 @@
 陪我玩吧！</t>
   </si>
   <si>
+    <t>TextImg</t>
+  </si>
+  <si>
     <t>配料右上角会显示它们的目的地！</t>
+  </si>
+  <si>
+    <t>imgTutorial01</t>
   </si>
   <si>
     <t>配料上电梯之后请按左边的电梯按钮，
 我会用嘴送他们到目标高度！</t>
   </si>
   <si>
+    <t>imgTutorial02</t>
+  </si>
+  <si>
     <t>只有电梯刚到时配料才会因为压强上车哦！</t>
   </si>
   <si>
@@ -90,10 +102,16 @@
 点击左边就可以强化技能啦！</t>
   </si>
   <si>
+    <t>imgTutorial04</t>
+  </si>
+  <si>
     <t>是时候送配料们上天国啦！
 点击蓝色按钮我会用力吸气吸收他们！</t>
   </si>
   <si>
+    <t>imgTutorial03</t>
+  </si>
+  <si>
     <t>我会根据配料的多少给你小费哦！</t>
   </si>
   <si>
@@ -113,8 +131,11 @@
     <t>还有现在开始配料们对电梯要求变高了。</t>
   </si>
   <si>
-    <t>太长时间不接他们，怒气值会填满气泡，
-他们就会愤怒的不坐电梯了。</t>
+    <t>长时间不理他们会让怒气值充满，
+他们会愤怒的离开并降低人气。</t>
+  </si>
+  <si>
+    <t>imgTutorial05</t>
   </si>
   <si>
     <t>Star3</t>
@@ -1103,17 +1124,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="19.0909090909091" customWidth="1"/>
     <col min="4" max="4" width="37.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="28.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1121,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1134,19 +1156,25 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:4">
@@ -1154,13 +1182,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1168,13 +1196,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:4">
@@ -1182,41 +1210,47 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="28" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1224,13 +1258,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1238,10 +1272,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1249,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:4">
@@ -1263,13 +1297,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1277,41 +1311,47 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="28" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:5">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:5">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1319,13 +1359,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1333,10 +1373,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1344,13 +1384,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:4">
@@ -1358,13 +1398,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1372,13 +1412,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1386,27 +1426,30 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" ht="28" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" ht="28" spans="1:5">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1414,10 +1457,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1425,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:4">
@@ -1439,13 +1482,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1453,13 +1496,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1467,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1481,10 +1524,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:4">
@@ -1492,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:4">
@@ -1506,13 +1549,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:4">
@@ -1520,13 +1563,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1534,13 +1577,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1548,10 +1591,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
